--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad Mohamed Mesbah Wagih Hassan Sherif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Alaa Hussein Elshafey</x:t>
   </x:si>
   <x:si>
     <x:t>1220307</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1009,7 +1018,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1101,9 +1110,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1126,16 +1137,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1167,7 +1176,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1199,7 +1208,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1231,7 +1240,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1263,7 +1272,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,7 +1304,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1400,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1432,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45909.440512419</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -219,6 +219,15 @@
     <x:t>Farah Mohamed Ashry Bekhet</x:t>
   </x:si>
   <x:si>
+    <x:t>1240248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم اسامة محمود عبدالقادر يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Osama Mahmoud Abd El Kader Youssef</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250187</x:t>
   </x:si>
   <x:si>
@@ -271,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Abdel Aty Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1240154</x:t>
@@ -467,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +785,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1528,7 +1546,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1560,7 +1578,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1592,7 +1610,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1624,7 +1642,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1656,7 +1674,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1706,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1738,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1770,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1802,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1834,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1866,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1898,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1930,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1962,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1994,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2011,70 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45909.440512419</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه الوليد محمد محمود الشناوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
     <x:t>1240309</x:t>
@@ -485,7 +494,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -785,7 +794,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -940,7 +949,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -972,7 +981,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1004,7 +1013,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1160,9 +1169,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1185,16 +1196,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1226,7 +1235,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1258,7 +1267,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1290,7 +1299,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1322,7 +1331,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1354,7 +1363,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1386,7 +1395,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1418,7 +1427,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1450,7 +1459,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1482,7 +1491,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1514,7 +1523,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1546,7 +1555,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1578,7 +1587,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1610,7 +1619,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1642,7 +1651,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1674,7 +1683,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1706,7 +1715,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1738,7 +1747,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1770,7 +1779,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1802,7 +1811,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1834,7 +1843,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1866,7 +1875,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1898,7 +1907,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1930,7 +1939,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1962,7 +1971,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1994,7 +2003,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2026,7 +2035,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2058,7 +2067,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45909.440512419</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2075,6 +2084,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Jody Emad Fathy Elsayed Selyman</x:t>
   </x:si>
   <x:si>
+    <x:t>1240298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جورج ممدوح محروس رزق مرقس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOURG</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250170</x:t>
   </x:si>
   <x:si>
@@ -325,6 +334,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Amr Elsayed Badran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندى أحمد محمد عبد الحليم السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Ahmad Mohamad AbdelHalim</x:t>
   </x:si>
   <x:si>
     <x:t>1220151</x:t>
@@ -494,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -794,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -917,7 +935,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45918.4743642708</x:v>
+        <x:v>45920.9131716088</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -949,7 +967,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45918.4743642708</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -981,7 +999,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1013,7 +1031,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1045,7 +1063,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1077,7 +1095,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1109,7 +1127,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1141,7 +1159,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1173,7 +1191,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1201,9 +1219,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1226,16 +1246,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1267,7 +1285,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1299,7 +1317,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1331,7 +1349,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1363,7 +1381,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1395,7 +1413,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1427,7 +1445,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1459,7 +1477,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1491,7 +1509,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1523,7 +1541,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1555,7 +1573,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1587,7 +1605,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1619,7 +1637,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1651,7 +1669,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1683,7 +1701,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1715,7 +1733,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1747,7 +1765,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1779,7 +1797,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1811,7 +1829,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1843,7 +1861,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1875,7 +1893,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1907,7 +1925,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1939,7 +1957,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1971,7 +1989,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2003,7 +2021,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2035,7 +2053,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2067,7 +2085,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2099,7 +2117,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2116,6 +2134,70 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45909.440512419</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240309</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
   </x:si>
   <x:si>
+    <x:t>1240315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد مجدي محمود احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeiad mohamed magdy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240224</x:t>
   </x:si>
   <x:si>
@@ -138,6 +156,15 @@
     <x:t>عبدالله خالد رجب عبدالمنعم عيد</x:t>
   </x:si>
   <x:si>
+    <x:t>1240334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على تامر عبدالكريم منسى عبدالغفار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240338</x:t>
   </x:si>
   <x:si>
@@ -255,6 +282,15 @@
     <x:t>Lujain Fathy Ahmed Mohamed Hanafi</x:t>
   </x:si>
   <x:si>
+    <x:t>1240351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لجين محمد جاد مرشدي عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>×  Lojain Mohamed Gad Morshedy Omar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240358</x:t>
   </x:si>
   <x:si>
@@ -289,6 +325,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود احمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240185</x:t>
@@ -512,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1031,7 +1076,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45921.5624914005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1063,7 +1108,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1095,7 +1140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1127,7 +1172,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45921.4855052894</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1159,7 +1204,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1191,7 +1236,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1223,7 +1268,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1251,9 +1296,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1276,16 +1323,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1308,16 +1355,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1349,7 +1394,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1381,7 +1426,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1413,7 +1458,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1445,7 +1490,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1477,7 +1522,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1509,7 +1554,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1541,7 +1586,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1573,7 +1618,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1605,7 +1650,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1637,7 +1682,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1669,7 +1714,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1701,7 +1746,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1733,7 +1778,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1765,7 +1810,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1797,7 +1842,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45921.4179724884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1829,7 +1874,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1861,7 +1906,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1893,7 +1938,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1925,7 +1970,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1957,7 +2002,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45921.559493831</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1989,7 +2034,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.9301413194</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2066,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2098,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2130,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2162,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2194,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2181,7 +2226,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2243,166 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45909.8773838773</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45907.6650952546</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.6761571759</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45909.440512419</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1240012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد احمد عبدالحميد ابراهيم المسيري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240297</x:t>
   </x:si>
   <x:si>
@@ -85,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Roudina Mahmoud Ahmed Moustafa Mousa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
   </x:si>
   <x:si>
     <x:t>1240194</x:t>
@@ -557,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -948,7 +966,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45908.4199948727</x:v>
+        <x:v>45922.5207153588</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -980,7 +998,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45920.9131716088</x:v>
+        <x:v>45908.4199948727</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1012,7 +1030,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45918.4743642708</x:v>
+        <x:v>45920.9131716088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1044,7 +1062,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45918.4743642708</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1076,7 +1094,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45921.5624914005</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1108,7 +1126,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45921.5624914005</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1158,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1190,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45921.4855052894</x:v>
+        <x:v>45922.506206713</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1222,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1254,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45921.4855052894</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1286,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1318,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1350,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1360,9 +1378,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1385,16 +1405,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1417,16 +1437,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1458,7 +1476,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1490,7 +1508,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1522,7 +1540,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1554,7 +1572,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1586,7 +1604,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1618,7 +1636,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1650,7 +1668,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1682,7 +1700,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1714,7 +1732,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1746,7 +1764,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1778,7 +1796,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1810,7 +1828,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1842,7 +1860,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.4179724884</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1874,7 +1892,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1906,7 +1924,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45921.4179724884</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1938,7 +1956,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1970,7 +1988,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2002,7 +2020,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.559493831</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2034,7 +2052,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2066,7 +2084,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45921.559493831</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2098,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2130,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2162,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2194,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45920.9301413194</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2226,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2258,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2290,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2322,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2354,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2386,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2403,6 +2421,70 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45909.440512419</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
     <x:t>1240297</x:t>
@@ -575,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -998,7 +1007,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45908.4199948727</x:v>
+        <x:v>45925.3294378125</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1030,7 +1039,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45920.9131716088</x:v>
+        <x:v>45908.4199948727</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1062,7 +1071,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45918.4743642708</x:v>
+        <x:v>45920.9131716088</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1094,7 +1103,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45918.4743642708</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1126,7 +1135,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.5624914005</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1158,7 +1167,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45921.5624914005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1190,7 +1199,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45922.506206713</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1222,7 +1231,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45922.506206713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.4855052894</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45921.4855052894</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1442,9 +1451,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1467,16 +1478,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1508,7 +1517,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1540,7 +1549,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1572,7 +1581,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1604,7 +1613,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1636,7 +1645,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1668,7 +1677,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1700,7 +1709,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1732,7 +1741,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1764,7 +1773,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1796,7 +1805,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1828,7 +1837,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1860,7 +1869,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1892,7 +1901,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1924,7 +1933,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.4179724884</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1956,7 +1965,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45921.4179724884</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1988,7 +1997,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2020,7 +2029,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2052,7 +2061,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2084,7 +2093,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45921.559493831</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2116,7 +2125,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45921.559493831</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2148,7 +2157,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45920.9301413194</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2372,7 +2381,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2404,7 +2413,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2436,7 +2445,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2468,7 +2477,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45909.440512419</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2486,16 +2495,48 @@
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
     </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Linear Algebra and Multivariable Integrals (MTHS102) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Linear Algebra and Multivariable Integrals (MTHS102) Location : [20108]20108-60-الجيزة الرئيسي Time : Thursday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Linear Algebra and Multivariable Integrals (MTHS102) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Linear Algebra and Multivariable Integrals (MTHS102) Location : [20108]20108-60-الجيزة الرئيسي Time : Thursday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Linear Algebra and Multivariable Integrals (MTHS102) Location : [20503]20503-45-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Linear Algebra and Multivariable Integrals (MTHS102) Location : [20108]20108-60-الجيزة الرئيسي Time : Thursday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد عبد المنجى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240338</x:t>
@@ -584,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -884,7 +893,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1549,7 +1558,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45926.4987018171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1645,7 +1654,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1677,7 +1686,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1709,7 +1718,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1741,7 +1750,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1773,7 +1782,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1805,7 +1814,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1837,7 +1846,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1869,7 +1878,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1901,7 +1910,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1933,7 +1942,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1965,7 +1974,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.4179724884</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1997,7 +2006,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45921.4179724884</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2029,7 +2038,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2061,7 +2070,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2093,7 +2102,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2125,7 +2134,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.559493831</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2157,7 +2166,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45921.559493831</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2189,7 +2198,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2221,7 +2230,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2253,7 +2262,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2285,7 +2294,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2317,7 +2326,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45920.9301413194</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2349,7 +2358,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2381,7 +2390,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2413,7 +2422,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45909.8773838773</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2445,7 +2454,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2477,7 +2486,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2509,7 +2518,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45909.440512419</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2526,6 +2535,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -87,15 +87,6 @@
     <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
-    <x:t>4250172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد وليد رمضان فكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Walid Ramadan Fikry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240309</x:t>
   </x:si>
   <x:si>
@@ -166,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4250178</x:t>
@@ -1176,7 +1176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.5624914005</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1208,7 +1208,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45922.506206713</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1240,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45922.506206713</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1272,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45921.4855052894</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1304,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.4855052894</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1336,7 +1336,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1368,7 +1368,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1400,7 +1400,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1432,7 +1432,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45927.462313044</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -2422,7 +2422,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.8773838773</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -87,6 +87,15 @@
     <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامى أسامة بحر توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramy Osama Bahr Tawfik</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240309</x:t>
   </x:si>
   <x:si>
@@ -123,15 +132,6 @@
     <x:t>Zeiad mohamed magdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1240224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمد مصباح وجيه حسن شريف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Mohamed Mesbah Wagih Hassan Sherif</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240070</x:t>
   </x:si>
   <x:si>
@@ -201,6 +201,15 @@
     <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240338</x:t>
   </x:si>
   <x:si>
@@ -460,15 +469,6 @@
   </x:si>
   <x:si>
     <x:t>yousef ahmed shafik sharaf eldin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1240175</x:t>
@@ -1176,7 +1176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45927.8377030093</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1208,7 +1208,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45922.506206713</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1240,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45922.506206713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1272,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.4855052894</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1304,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45921.4855052894</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1590,7 +1590,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45927.7851680556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1622,7 +1622,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1654,7 +1654,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1686,7 +1686,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1718,7 +1718,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1750,7 +1750,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1782,7 +1782,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1814,7 +1814,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1846,7 +1846,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1878,7 +1878,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1910,7 +1910,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1942,7 +1942,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1974,7 +1974,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2006,7 +2006,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.4179724884</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2038,7 +2038,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45921.4179724884</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2070,7 +2070,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2102,7 +2102,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2134,7 +2134,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2166,7 +2166,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.559493831</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2198,7 +2198,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45921.559493831</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2230,7 +2230,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2262,7 +2262,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2294,7 +2294,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2326,7 +2326,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2358,7 +2358,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45920.9301413194</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2390,7 +2390,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2422,7 +2422,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2454,7 +2454,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2486,7 +2486,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2518,7 +2518,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.440512419</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -1590,7 +1590,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.7851680556</x:v>
+        <x:v>45928.9635444444</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -60,15 +60,6 @@
     <x:t>Jody Emad Fathy Elsayed Selyman</x:t>
   </x:si>
   <x:si>
-    <x:t>1240298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جورج ممدوح محروس رزق مرقس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOURG</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250170</x:t>
   </x:si>
   <x:si>
@@ -217,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Abd ElRahman Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
   </x:si>
   <x:si>
     <x:t>1240339</x:t>
@@ -1080,7 +1080,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45920.9131716088</x:v>
+        <x:v>45918.4743642708</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1112,7 +1112,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45918.4743642708</x:v>
+        <x:v>45919.7883928588</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1144,7 +1144,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45919.7883928588</x:v>
+        <x:v>45927.8377030093</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1176,7 +1176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.8377030093</x:v>
+        <x:v>45909.6078886574</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1208,7 +1208,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.6078886574</x:v>
+        <x:v>45922.506206713</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1240,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45922.506206713</x:v>
+        <x:v>45907.68296875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1272,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.68296875</x:v>
+        <x:v>45921.4855052894</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1304,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.4855052894</x:v>
+        <x:v>45919.5942723727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1336,7 +1336,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1368,7 +1368,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1400,7 +1400,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45927.462313044</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1432,7 +1432,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.462313044</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1460,11 +1460,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1487,14 +1485,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1526,7 +1526,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45926.4987018171</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1558,7 +1558,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45926.4987018171</x:v>
+        <x:v>45928.9635444444</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1590,7 +1590,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.9635444444</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1622,7 +1622,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45929.550033912</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Zeiad mohamed magdy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Alaa Hussein Elshafey</x:t>
   </x:si>
   <x:si>
     <x:t>1220307</x:t>
@@ -593,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -893,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1304,7 +1295,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.5942723727</x:v>
+        <x:v>45909.4160386921</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1336,7 +1327,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4160386921</x:v>
+        <x:v>45908.4192371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1368,7 +1359,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4192371181</x:v>
+        <x:v>45927.462313044</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1400,7 +1391,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.462313044</x:v>
+        <x:v>45918.4118707176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1428,11 +1419,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45918.4118707176</x:v>
+        <x:v>45907.6665458333</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1455,14 +1444,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6665458333</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1494,7 +1485,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45926.4987018171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1526,7 +1517,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45926.4987018171</x:v>
+        <x:v>45928.9635444444</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1558,7 +1549,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.9635444444</x:v>
+        <x:v>45917.4906476042</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1590,7 +1581,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.4906476042</x:v>
+        <x:v>45929.550033912</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1622,7 +1613,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.550033912</x:v>
+        <x:v>45908.4297396644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1654,7 +1645,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4297396644</x:v>
+        <x:v>45907.6777736921</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1686,7 +1677,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6777736921</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1718,7 +1709,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1750,7 +1741,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1782,7 +1773,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1814,7 +1805,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45907.6893097222</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1846,7 +1837,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6893097222</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1878,7 +1869,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1910,7 +1901,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6672024306</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1942,7 +1933,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6672024306</x:v>
+        <x:v>45919.6086008449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1974,7 +1965,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45919.6086008449</x:v>
+        <x:v>45918.4860672454</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2006,7 +1997,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45918.4860672454</x:v>
+        <x:v>45921.4179724884</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2038,7 +2029,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.4179724884</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2070,7 +2061,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2102,7 +2093,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2134,7 +2125,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45915.9073392361</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2166,7 +2157,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.9073392361</x:v>
+        <x:v>45921.559493831</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2198,7 +2189,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45921.559493831</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2230,7 +2221,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45919.5956764699</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2262,7 +2253,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45919.5956764699</x:v>
+        <x:v>45907.6806433681</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2294,7 +2285,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6806433681</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2326,7 +2317,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45908.4480073727</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2358,7 +2349,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4480073727</x:v>
+        <x:v>45920.9301413194</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2390,7 +2381,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45920.9301413194</x:v>
+        <x:v>45907.4167072569</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2422,7 +2413,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4167072569</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2454,7 +2445,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45907.6650952546</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2486,7 +2477,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6650952546</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2518,7 +2509,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2535,38 +2526,6 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20">
-      <x:c r="A51" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="E51" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F51" s="2" t="s"/>
-      <x:c r="G51" s="2" t="s"/>
-      <x:c r="H51" s="2" t="s"/>
-      <x:c r="I51" s="2" t="s"/>
-      <x:c r="J51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="L51" s="2" t="s"/>
-      <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="2" t="s"/>
-      <x:c r="O51" s="2" t="s"/>
-      <x:c r="P51" s="2" t="s"/>
-      <x:c r="Q51" s="2" t="s"/>
-      <x:c r="R51" s="2" t="s"/>
-      <x:c r="S51" s="2" t="s"/>
-      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35070.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35070.xlsx
@@ -108,7 +108,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
@@ -156,7 +156,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1230332</x:t>
